--- a/pred_ohlcv/54_23/2019-10-16 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-16 LAMB ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>40.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>40.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         <v>40.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -599,10 +599,10 @@
         <v>40.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>40.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -668,10 +668,10 @@
         <v>40.2</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>40.4</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         <v>40.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>40.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -760,10 +760,10 @@
         <v>40.2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -783,10 +783,10 @@
         <v>40.2</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -806,10 +806,10 @@
         <v>40.6</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1427,7 +1427,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -1450,7 +1450,7 @@
         <v>41.9</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>41.9</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -1519,7 +1519,7 @@
         <v>41.5</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -1611,7 +1611,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>41.1</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -1657,7 +1657,7 @@
         <v>41.6</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -1680,7 +1680,7 @@
         <v>41.7</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>41.6</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>41.5</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -1772,7 +1772,7 @@
         <v>40.9</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>41.4</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3129,7 +3129,7 @@
         <v>42.2</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -3152,7 +3152,7 @@
         <v>42.1</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -3175,13 +3175,13 @@
         <v>42</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>